--- a/biology/Zoologie/Coendou/Coendou.xlsx
+++ b/biology/Zoologie/Coendou/Coendou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coendou, Porcs-épics préhensiles
-Les Coendous ou Porcs-épics préhensiles (Coendou)[1],[2] sont un genre de rongeurs de la famille des Erethizontidae ; cette dernière rassemble les porcs-épics du continent américain. On retrouve cet animal en Amérique du Sud et en Amérique centrale. 
+Les Coendous ou Porcs-épics préhensiles (Coendou), sont un genre de rongeurs de la famille des Erethizontidae ; cette dernière rassemble les porcs-épics du continent américain. On retrouve cet animal en Amérique du Sud et en Amérique centrale. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont une queue préhensile et des pouces opposables aux pieds et aux mains.
 </t>
@@ -543,12 +557,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit pour la première fois en 1799 par le zoologiste français Bernard-Germain de Lacépède (1756-1825).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1799 par le zoologiste français Bernard-Germain de Lacépède (1756-1825).
 Les auteurs ont souvent hésité dans la seconde moitié du XXe siècle à inclure également dans ce genre les espèces de porcs-épics préhensiles du genre Sphiggurus, toutefois, à la lumière de la génétique, les deux genres sont considérés comme étant distincts au début du XXIe siècle.
-Liste des espèces
-Selon Mammal Species of the World (version 3, 2005)  (23 septembre 2013)[3] et Catalogue of Life                                   (4 octobre 2013)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coendou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coendou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (23 septembre 2013) et Catalogue of Life                                   (4 octobre 2013) :
 Coendou bicolor (Tschudi, 1844) - Coendou bicolore
 Coendou nycthemera Olfers, 1818
 Coendou prehensilis (Linnaeus, 1758) - Coendou à queue prenante ou Porc-épic du Brésil
